--- a/biology/Botanique/Gyroporus/Gyroporus.xlsx
+++ b/biology/Botanique/Gyroporus/Gyroporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gyroporus, autrefois classé dans la famille des Boletaceae est  un groupe de champignons classé maintenant dans la famille des Gyroporaceae, basidiomycètes de l'ordre des Boletales. Bien que classés dans l'ordre des Boletales, ils sont plus proches des Boletaceae que des Boletinellaceae, des Sclerodermataceae[Quoi ?] selon de nouvelles recherches[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gyroporus, autrefois classé dans la famille des Boletaceae est  un groupe de champignons classé maintenant dans la famille des Gyroporaceae, basidiomycètes de l'ordre des Boletales. Bien que classés dans l'ordre des Boletales, ils sont plus proches des Boletaceae que des Boletinellaceae, des Sclerodermataceae[Quoi ?] selon de nouvelles recherches.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuticule sèche, glabre à fibreuse et subsquameuse. Chair blanc jaune pâle, colorée en bleu chez certaines espèces. Hyménium adné, jaune pâle, blanc, puis, avec des pores colorés bleus chez certaines espèces. Stipe sec, glabre ou fibreux, subfurfuracé, creux ou plein. Sporée jaune. Spores lisses, ellipsoïdes.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Zone nord-tempérée et pantropicale ; absent dans l'hémisphère sud, mais occasionnellement en Australie.
 Mycorhize avec Pinaceae, Fagaceae, Myrtaceae, Casuarinaceae(?).
@@ -574,7 +590,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre Gyroporus comprend les espèces suivantes:
 Gyroporus  ammophilus
